--- a/data/Test.xlsx
+++ b/data/Test.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tlrth\Documents\Program Development\Lacky\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30BCB564-A981-4261-B77F-3A70976E4411}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3EE51E8-AACA-4578-AC70-17EF9526C535}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2580" yWindow="3360" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2544" yWindow="5628" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>id</t>
   </si>
@@ -46,6 +46,27 @@
   </si>
   <si>
     <t>depth</t>
+  </si>
+  <si>
+    <t>Vetafarm</t>
+  </si>
+  <si>
+    <t>AVK</t>
+  </si>
+  <si>
+    <t>Vulcan</t>
+  </si>
+  <si>
+    <t>AU Ramps</t>
+  </si>
+  <si>
+    <t>TTI</t>
+  </si>
+  <si>
+    <t>Commodore</t>
+  </si>
+  <si>
+    <t>3T Foods</t>
   </si>
 </sst>
 </file>
@@ -363,13 +384,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="11.21875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -395,8 +419,8 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>1</v>
+      <c r="A2" t="s">
+        <v>7</v>
       </c>
       <c r="B2">
         <v>1.2</v>
@@ -412,8 +436,8 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>2</v>
+      <c r="A3" t="s">
+        <v>13</v>
       </c>
       <c r="B3">
         <v>1.2</v>
@@ -429,8 +453,8 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>3</v>
+      <c r="A4" t="s">
+        <v>12</v>
       </c>
       <c r="B4">
         <v>4</v>
@@ -446,8 +470,8 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>4</v>
+      <c r="A5" t="s">
+        <v>9</v>
       </c>
       <c r="B5">
         <v>6</v>
@@ -463,8 +487,8 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>5</v>
+      <c r="A6" t="s">
+        <v>10</v>
       </c>
       <c r="B6">
         <v>1</v>
@@ -480,8 +504,8 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>6</v>
+      <c r="A7" t="s">
+        <v>11</v>
       </c>
       <c r="B7">
         <v>1.5</v>
@@ -494,6 +518,23 @@
       </c>
       <c r="E7">
         <v>280</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8">
+        <v>1.2</v>
+      </c>
+      <c r="C8">
+        <v>1.2</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>600</v>
       </c>
     </row>
   </sheetData>
